--- a/JapanGameContest2023/イラスト イメージ.xlsx
+++ b/JapanGameContest2023/イラスト イメージ.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\Game\4年\GameContest2023\JapanGameContest2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA4\Desktop\Game\JapanGameContest2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D06671-49F0-4773-A4C2-9D23DBEBCB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="欲しいイラスト" sheetId="1" r:id="rId1"/>
@@ -312,7 +311,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -748,8 +747,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13422394" y="8585751"/>
-          <a:ext cx="3853218" cy="2160352"/>
+          <a:off x="13635306" y="8666433"/>
+          <a:ext cx="3920453" cy="2182764"/>
           <a:chOff x="9106653" y="7759411"/>
           <a:chExt cx="3943839" cy="2231486"/>
         </a:xfrm>
@@ -1441,100 +1440,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6"/>
     </row>
-    <row r="5" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6"/>
     </row>
-    <row r="7" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>12</v>
       </c>

--- a/JapanGameContest2023/イラスト イメージ.xlsx
+++ b/JapanGameContest2023/イラスト イメージ.xlsx
@@ -24,212 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>【パソコンに出て来るアイコン(イメージ)】</t>
-    <rPh sb="6" eb="7">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　ゲームの世界観の設定が、パソコンの画面の中なので、パソコンに出て来るアイコンやアイテムのイラストを色々お願いすると思います。</t>
-    <rPh sb="5" eb="8">
-      <t>セカイカン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>デ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>イロイロ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>ネガ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【キャラクター(イメージ)】</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　ウイルス的な何かになると思います。</t>
-    <rPh sb="5" eb="6">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　表情の変化などをお願いすると思います。</t>
-    <rPh sb="1" eb="3">
-      <t>ヒョウジョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヘンカ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ネガ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【タイトルロゴや背景(イメージ)】</t>
-    <rPh sb="8" eb="10">
-      <t>ハイケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　ゲームのタイトルロゴや、ゲーム内で使用する背景などをお願いします。</t>
-    <rPh sb="16" eb="17">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ハイケイ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ネガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　パソコンの中という設定なので「実際のパソコンでよく見るような背景に近いもの」や「単色などシンプルなもの」をお願いすると思います。</t>
-    <rPh sb="6" eb="7">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジッサイ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ハイケイ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>タンショク</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>ネガ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブロックのデザイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　ゲーム内で使用するブロックのイラストです。</t>
-    <rPh sb="4" eb="5">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　パソコンというテーマがあるのでデザインは上のものとは全然違うものになると思います。</t>
-    <rPh sb="21" eb="22">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ゼンゼン</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>チガ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　種類的には3種類程お願いすると思います。</t>
-    <rPh sb="1" eb="3">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ホド</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ネガ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　ゲーム内でブロックのサイズが変わるので、デザインは伸び縮みしても違和感のないものをお願いすると思います</t>
-    <rPh sb="4" eb="5">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>チヂ</t>
-    </rPh>
-    <rPh sb="33" eb="36">
-      <t>イワカン</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ネガ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>　描いてほしいイラストのイメージ画像をまとめました。</t>
     <rPh sb="1" eb="2">
@@ -237,31 +32,6 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>ガゾウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　少し変わるところもありますが、ほとんど下のイメージ画像と似たものをお願いすると思います。</t>
-    <rPh sb="1" eb="2">
-      <t>スコ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ニ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ネガ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>オモ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -304,6 +74,334 @@
     </rPh>
     <rPh sb="23" eb="24">
       <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【パソコンに出て来るアイコン】</t>
+    <rPh sb="6" eb="7">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　ネットの画像をイメージとして並べています、近いデザインの物をお願いします。</t>
+    <rPh sb="5" eb="7">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【キャラクター】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　キャラクターはコンピュータウイルスです</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　顔や手足は左の画像で、輪郭のみ右の雲みたいな形でお願いします</t>
+    <rPh sb="1" eb="2">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テアシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>リンカク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>クモ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　色々アクションをするので、笑顔と通常とやられた時の3種類の顔をお願いします</t>
+    <rPh sb="1" eb="3">
+      <t>イロイロ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>エガオ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【タイトルロゴと背景】</t>
+    <rPh sb="8" eb="10">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　タイトルは「ういるすぱーじ」です、色はそのままで見栄えを綺麗にする感じでお願いします(フォントなども近いもののままで大丈夫です)</t>
+    <rPh sb="18" eb="19">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ミバ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キレイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ネガ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>ダイジョウブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　背景は、ゲームがパソコンの中という設定なので背景のイラストに加え下のバーを入れて欲しいです(サイズ感は実際のものと同じぐらい)</t>
+    <rPh sb="1" eb="3">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ホ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　背景のイラストについて、窓などをそのまま真似するのはダメなので、色合いなどを寄せてそれっぽい感じにしてほしいです(青と水色を組み合わせるなど)</t>
+    <rPh sb="1" eb="3">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>マネ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イロア</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ミズイロ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　背景の種類は2～3種類お願いします</t>
+    <rPh sb="1" eb="3">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　バーの上には何もなくて大丈夫です</t>
+    <rPh sb="4" eb="5">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ダイジョウブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　サイズ(タイトルロゴ)：1024×512(pixel)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　サイズ：256×256(pixel)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　サイズ：256×256(pixel)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　サイズ(背景)：1920×1080(pixel)</t>
+    <rPh sb="5" eb="7">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　色は輪郭や手足は上の画像と同じ色で、顔だけ白でお願いします</t>
+    <rPh sb="1" eb="2">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リンカク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テアシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　色は白でお願いします</t>
+    <rPh sb="1" eb="2">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　サイズ：256×256(pixel)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ブロック】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　単色で縁が付いてる感じでお願いします</t>
+    <rPh sb="1" eb="3">
+      <t>タンショク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>フチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　ゲーム内で使用するブロックのイラストです</t>
+    <rPh sb="4" eb="5">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -432,15 +530,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>67234</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>177052</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>579474</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>145668</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -470,8 +568,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="790575"/>
-          <a:ext cx="2636874" cy="1771650"/>
+          <a:off x="67234" y="2294964"/>
+          <a:ext cx="2812669" cy="1873624"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -492,16 +590,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>202264</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>316565</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180416</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -531,8 +629,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2371725" y="295275"/>
-          <a:ext cx="2857500" cy="2857500"/>
+          <a:off x="5670735" y="2063003"/>
+          <a:ext cx="2848536" cy="2823884"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -555,13 +653,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -601,16 +699,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>588869</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>136151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>448236</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>118645</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -628,6 +726,17 @@
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId4">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="376" b="94361" l="9398" r="89850">
+                      <a14:foregroundMark x1="39098" y1="46241" x2="46617" y2="51128"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
@@ -640,8 +749,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5514975" y="657225"/>
-          <a:ext cx="2133600" cy="2133600"/>
+          <a:off x="11525810" y="2254063"/>
+          <a:ext cx="2593602" cy="2571053"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -662,16 +771,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>500747</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>175810</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>231805</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>63751</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>320675</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>5265</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>51733</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>128529</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -687,7 +796,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -701,8 +810,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9241335" y="7401363"/>
-          <a:ext cx="3854046" cy="2160278"/>
+          <a:off x="5700276" y="10888633"/>
+          <a:ext cx="3921281" cy="2182690"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -723,16 +832,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>647688</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>194786</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>468393</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>71521</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>466788</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>24315</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>287494</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>136373</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -747,7 +856,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13635306" y="8666433"/>
+          <a:off x="10038217" y="12073021"/>
           <a:ext cx="3920453" cy="2182764"/>
           <a:chOff x="9106653" y="7759411"/>
           <a:chExt cx="3943839" cy="2231486"/>
@@ -767,7 +876,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -813,7 +922,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -849,45 +958,181 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>212910</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>8964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>67139</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>163605</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
+        <xdr:cNvPr id="20" name="図 19" descr="すみっコぐらしofficial web site プロフィール">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE53B959-EBA5-CE6F-23F0-502F0ECB0B0C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2B54FD6-2EB5-2E88-2530-1A929A056EB6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId9">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="25250" t="35420" r="22750" b="19373"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="212910" y="5892052"/>
+          <a:ext cx="2588464" cy="2272553"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>143434</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>331693</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>170396</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21" descr="ホコリイラスト／無料イラスト/フリー素材なら「イラストAC」">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A7737AB-3408-96CA-023D-A159328CF4F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3561228" y="5997989"/>
+          <a:ext cx="2238936" cy="2173407"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>190498</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>27225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId12">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
+                      <a14:foregroundMark x1="20927" y1="20741" x2="27528" y2="25185"/>
+                      <a14:foregroundMark x1="33146" y1="23210" x2="32725" y2="40247"/>
+                      <a14:foregroundMark x1="45646" y1="27407" x2="46629" y2="40247"/>
+                      <a14:foregroundMark x1="55056" y1="20247" x2="60955" y2="20247"/>
+                      <a14:foregroundMark x1="72051" y1="25185" x2="76826" y2="29136"/>
+                      <a14:foregroundMark x1="46208" y1="73580" x2="57303" y2="73333"/>
+                      <a14:foregroundMark x1="68539" y1="63457" x2="70927" y2="67901"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="9801"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="220980" y="7376160"/>
-          <a:ext cx="4084320" cy="2042160"/>
+          <a:off x="112059" y="10074086"/>
+          <a:ext cx="6084793" cy="3837227"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -898,204 +1143,54 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>331696</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>224118</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>459442</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>120628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>367554</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>206188</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28012</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE39A259-F849-2344-01BA-451995C83B8F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="19" name="図 18" descr="プリント紙イラストのフリー素材｜イラストイメージ"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
           <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId14">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
+                      <a14:foregroundMark x1="49167" y1="21667" x2="44688" y2="68229"/>
+                      <a14:foregroundMark x1="48958" y1="71042" x2="50938" y2="62500"/>
+                      <a14:foregroundMark x1="56771" y1="75000" x2="63021" y2="47396"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="331696" y="10945906"/>
-          <a:ext cx="1380564" cy="1380564"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>580305</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>24492</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>235485</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>107576</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C29C08C1-E8A0-251A-51CA-5B467BA65C21}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4614423" y="7483127"/>
-          <a:ext cx="4361650" cy="2180825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>147599</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>219319</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>179293</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>197225</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="図 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65B02E8A-D427-DD2E-E04A-55AC3EF82269}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2164658" y="10941107"/>
-          <a:ext cx="1376400" cy="1376400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>224116</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>143434</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>78345</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>62752</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="図 19" descr="すみっコぐらしofficial web site プロフィール">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2B54FD6-2EB5-2E88-2530-1A929A056EB6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId12">
-                  <a14:imgEffect>
-                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="25250" t="35420" r="22750" b="19373"/>
-        <a:stretch/>
-      </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="224116" y="3872752"/>
-          <a:ext cx="2543641" cy="2250142"/>
+          <a:off x="7978589" y="2003216"/>
+          <a:ext cx="2991970" cy="2966590"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1117,31 +1212,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>233082</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>204547</xdr:rowOff>
+      <xdr:colOff>134472</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123266</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>421341</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>24719</xdr:rowOff>
+      <xdr:colOff>349702</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="図 21" descr="ホコリイラスト／無料イラスト/フリー素材なら「イラストAC」">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A7737AB-3408-96CA-023D-A159328CF4F7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="21" name="図 20" descr="フォルダーイラスト／無料イラスト/フリー素材なら「イラストAC」"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1155,8 +1244,913 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2922494" y="3933865"/>
-          <a:ext cx="2205318" cy="2150996"/>
+          <a:off x="2868707" y="2476501"/>
+          <a:ext cx="2265907" cy="1546412"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>138952</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>70037</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22" descr="√100以上 かっこいい ごみ箱 アイコン - クールな画像無料"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId17">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="0" b="92500" l="10000" r="90000">
+                      <a14:foregroundMark x1="35714" y1="81786" x2="45357" y2="84286"/>
+                      <a14:foregroundMark x1="53214" y1="85714" x2="58929" y2="84286"/>
+                      <a14:foregroundMark x1="25714" y1="73214" x2="29643" y2="78214"/>
+                      <a14:foregroundMark x1="39643" y1="77857" x2="37500" y2="82143"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13884088" y="2375648"/>
+          <a:ext cx="2660276" cy="2636183"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>224117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>358587</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="134470" y="1871382"/>
+          <a:ext cx="1591235" cy="437029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>フォルダ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>589429</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>163605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>129988</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>129987</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057900" y="1810870"/>
+          <a:ext cx="1591235" cy="437029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>ファイル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>584946</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>125504</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>80681</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11521887" y="1761564"/>
+          <a:ext cx="1591235" cy="437029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>ゴミ箱</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>163605</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>29135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>387722</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>230840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="163605" y="5441576"/>
+          <a:ext cx="1591235" cy="437029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>顔 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t> 手 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t> 足</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>24652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>35858</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>226357</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3229535" y="5437093"/>
+          <a:ext cx="1591235" cy="437029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>輪郭</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>224119</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>196962</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27" descr="映画すみっコぐらし』第３弾・2023年公開決定！【公式】 on Twitter: &quot;✏️#すみっコたちを知ろう📚  ほこりは、どこによくたまると思いますか？ 👉リプで教えてね🎶 #映画すみっコぐらし https://t.co/CU45YUn5ST&quot; /  Twitter"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId19">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="29504" t="30556" r="28206" b="30356"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7059707" y="6051176"/>
+          <a:ext cx="2599764" cy="2382110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>526677</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>89646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>44567</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>176492</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="図 28" descr="目がバッテン デフォルメイラスト／無料イラスト/フリー素材なら「イラストAC」"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId21">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9412942" y="5737411"/>
+          <a:ext cx="2935684" cy="2910728"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>121024</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>53787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>345141</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>20169</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6956612" y="5466228"/>
+          <a:ext cx="1591235" cy="437029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>表情差分</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="168088" y="9962030"/>
+          <a:ext cx="2017058" cy="437029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>タイトルロゴ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>197223</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>107577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>163605</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>73959</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5665694" y="9991165"/>
+          <a:ext cx="2017058" cy="437029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>背景</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>212914</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>531510</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>176494</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="図 32" descr="光沢のある四角ボタンセットイラスト - No: 2554882／無料イラスト/フリー素材なら「イラストAC」"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="246529" y="18568149"/>
+          <a:ext cx="4386334" cy="3258110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>230841</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>118782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>197223</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>85164</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="テキスト ボックス 33"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="230841" y="18003370"/>
+          <a:ext cx="2017058" cy="437029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>ブロック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>84102</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123264</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="図 34" descr="ボタンセット（四角）のイラスト素材 [26971202] - PIXTA"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="4042"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5165912" y="18204014"/>
+          <a:ext cx="3843617" cy="3804339"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1441,7 +2435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A64"/>
+  <dimension ref="A1:A99"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -1449,93 +2443,133 @@
   <sheetData>
     <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="6"/>
+    </row>
+    <row r="5" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="6"/>
+    </row>
+    <row r="7" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
-        <v>13</v>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="6" t="s">
-        <v>14</v>
+    <row r="75" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="6"/>
-    </row>
-    <row r="5" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="6" t="s">
-        <v>16</v>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="6"/>
-    </row>
-    <row r="7" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
-        <v>0</v>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>1</v>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
-        <v>12</v>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/JapanGameContest2023/イラスト イメージ.xlsx
+++ b/JapanGameContest2023/イラスト イメージ.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA4\Desktop\Game\JapanGameContest2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA4\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>　描いてほしいイラストのイメージ画像をまとめました。</t>
     <rPh sb="1" eb="2">
@@ -178,102 +178,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　タイトルは「ういるすぱーじ」です、色はそのままで見栄えを綺麗にする感じでお願いします(フォントなども近いもののままで大丈夫です)</t>
-    <rPh sb="18" eb="19">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ミバ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>キレイ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ネガ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="59" eb="62">
-      <t>ダイジョウブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　背景は、ゲームがパソコンの中という設定なので背景のイラストに加え下のバーを入れて欲しいです(サイズ感は実際のものと同じぐらい)</t>
-    <rPh sb="1" eb="3">
-      <t>ハイケイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ハイケイ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>クワ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>ホ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ジッサイ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>オナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　背景のイラストについて、窓などをそのまま真似するのはダメなので、色合いなどを寄せてそれっぽい感じにしてほしいです(青と水色を組み合わせるなど)</t>
-    <rPh sb="1" eb="3">
-      <t>ハイケイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>マド</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>マネ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>イロア</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ミズイロ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　背景の種類は2～3種類お願いします</t>
     <rPh sb="1" eb="3">
       <t>ハイケイ</t>
@@ -369,10 +273,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　サイズ：256×256(pixel)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>【ブロック】</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -403,6 +303,124 @@
     <rPh sb="6" eb="8">
       <t>シヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　背景は透過でお願いします</t>
+    <rPh sb="1" eb="3">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トウカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　タイトルは「ういるすぱーじ」です、色はそのままで見栄えを綺麗にする感じでお願いします(フォントは近いもののままで)</t>
+    <rPh sb="18" eb="19">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ミバ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キレイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ネガ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>チカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　背景は、ゲームがパソコンの中という設定なので背景のイラストに加え下のバーを入れて欲しいです(サイズ感は実際のものと同じ)</t>
+    <rPh sb="1" eb="3">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ホ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　背景のイラストについて、窓などをそのまま真似するのはダメなので、色合いなどを寄せてそれっぽい感じにしてほしいです</t>
+    <rPh sb="1" eb="3">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>マネ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イロア</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　イラストは真ん中にサイズギリギリの大きさで描いてほしいです</t>
+    <rPh sb="6" eb="7">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　サイズ：256×256(pixel)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　イラストは真ん中にサイズギリギリの大きさで描いてほしいです</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -535,10 +553,10 @@
       <xdr:rowOff>177052</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>145668</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>10124</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -554,7 +572,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -568,8 +586,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="67234" y="2294964"/>
-          <a:ext cx="2812669" cy="1873624"/>
+          <a:off x="67234" y="2320177"/>
+          <a:ext cx="1523441" cy="1023697"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -590,16 +608,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>202264</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>180415</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>230839</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>316565</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>180416</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101976</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -629,8 +647,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5670735" y="2063003"/>
-          <a:ext cx="2848536" cy="2823884"/>
+          <a:off x="2974039" y="2266390"/>
+          <a:ext cx="1407461" cy="1407461"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -653,13 +671,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -699,16 +717,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>588869</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>136151</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>350745</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>448236</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>118645</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>193491</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23395</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -749,8 +767,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11525810" y="2254063"/>
-          <a:ext cx="2593602" cy="2571053"/>
+          <a:off x="5837145" y="2381250"/>
+          <a:ext cx="1214346" cy="1214020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -771,16 +789,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>231805</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>63751</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9307</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>51733</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>128529</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>151789</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -810,8 +828,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5700276" y="10888633"/>
-          <a:ext cx="3921281" cy="2182690"/>
+          <a:off x="2752507" y="13373100"/>
+          <a:ext cx="2885682" cy="1619250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -832,16 +850,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>468393</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>71521</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>289659</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>42237</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>287494</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>136373</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>424069</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -856,8 +874,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10038217" y="12073021"/>
-          <a:ext cx="3920453" cy="2182764"/>
+          <a:off x="5776059" y="13377237"/>
+          <a:ext cx="2877610" cy="1615113"/>
           <a:chOff x="9106653" y="7759411"/>
           <a:chExt cx="3943839" cy="2231486"/>
         </a:xfrm>
@@ -958,15 +976,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>212910</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>8964</xdr:rowOff>
+      <xdr:colOff>212911</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180474</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>67139</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>163605</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>96929</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1003,8 +1021,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="212910" y="5892052"/>
-          <a:ext cx="2588464" cy="2272553"/>
+          <a:off x="212911" y="7086099"/>
+          <a:ext cx="1520640" cy="1345205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1025,15 +1043,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>143434</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>114901</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>191059</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>102629</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>331693</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>170396</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1050,7 +1068,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1064,8 +1082,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3561228" y="5997989"/>
-          <a:ext cx="2238936" cy="2173407"/>
+          <a:off x="2248459" y="7246379"/>
+          <a:ext cx="1285315" cy="1258392"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1087,15 +1105,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>112059</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>190498</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>123822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>27225</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>265439</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1131,8 +1149,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="112059" y="10074086"/>
-          <a:ext cx="6084793" cy="3837227"/>
+          <a:off x="0" y="13220697"/>
+          <a:ext cx="3008639" cy="1914527"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1143,16 +1161,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>459442</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>120628</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2242</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>130154</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>28012</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>643688</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1189,8 +1207,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7978589" y="2003216"/>
-          <a:ext cx="2991970" cy="2966590"/>
+          <a:off x="4117042" y="2273279"/>
+          <a:ext cx="1327246" cy="1327172"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1211,16 +1229,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>134472</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>267822</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>123266</xdr:rowOff>
+      <xdr:rowOff>94691</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>349702</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>22413</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114653</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1230,7 +1248,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1244,8 +1262,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2868707" y="2476501"/>
-          <a:ext cx="2265907" cy="1546412"/>
+          <a:off x="1639422" y="2475941"/>
+          <a:ext cx="1065678" cy="734337"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1266,16 +1284,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>212912</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>136712</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>22413</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>138952</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>70037</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>36366</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>127187</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1313,8 +1331,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="13884088" y="2375648"/>
-          <a:ext cx="2660276" cy="2636183"/>
+          <a:off x="6994712" y="2428875"/>
+          <a:ext cx="1271254" cy="1270187"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1400,16 +1418,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>589429</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>163605</xdr:rowOff>
+      <xdr:rowOff>211230</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>129988</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>472888</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>129987</xdr:rowOff>
+      <xdr:rowOff>177612</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1418,8 +1436,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6057900" y="1810870"/>
-          <a:ext cx="1591235" cy="437029"/>
+          <a:off x="2989729" y="1878105"/>
+          <a:ext cx="1597959" cy="442632"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1465,16 +1483,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>584946</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>146796</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>125504</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>373154</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>80681</xdr:rowOff>
+      <xdr:rowOff>166406</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1483,8 +1501,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11521887" y="1761564"/>
-          <a:ext cx="1591235" cy="437029"/>
+          <a:off x="5633196" y="1866899"/>
+          <a:ext cx="1597958" cy="442632"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1531,15 +1549,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>163605</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>29135</xdr:rowOff>
+      <xdr:colOff>154080</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>387722</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>230840</xdr:rowOff>
+      <xdr:colOff>378197</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>202265</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1548,8 +1566,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="163605" y="5441576"/>
-          <a:ext cx="1591235" cy="437029"/>
+          <a:off x="154080" y="6668060"/>
+          <a:ext cx="1595717" cy="439830"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1611,16 +1629,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>24652</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>224677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>35858</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>226357</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>273983</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>188257</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1629,8 +1647,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3229535" y="5437093"/>
-          <a:ext cx="1591235" cy="437029"/>
+          <a:off x="2105025" y="6654052"/>
+          <a:ext cx="1597958" cy="439830"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1676,16 +1694,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>224119</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>176494</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>22467</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>196962</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>120761</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1716,8 +1734,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7059707" y="6051176"/>
-          <a:ext cx="2599764" cy="2382110"/>
+          <a:off x="4291294" y="7166217"/>
+          <a:ext cx="1395131" cy="1288919"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1738,16 +1756,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>526677</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>89646</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>231402</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>218658</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>44567</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>176492</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>14567</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1780,8 +1798,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9412942" y="5737411"/>
-          <a:ext cx="2935684" cy="2910728"/>
+          <a:off x="5717802" y="7124283"/>
+          <a:ext cx="1464048" cy="1462784"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1802,16 +1820,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>121024</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>53787</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6724</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>215712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>345141</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>20169</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>230841</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>182094</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1820,8 +1838,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6956612" y="5466228"/>
-          <a:ext cx="1591235" cy="437029"/>
+          <a:off x="4121524" y="6645087"/>
+          <a:ext cx="1595717" cy="442632"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1868,15 +1886,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>168088</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>78442</xdr:rowOff>
+      <xdr:colOff>103654</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>145117</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>134470</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:colOff>70036</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>111499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1885,8 +1903,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="168088" y="9962030"/>
-          <a:ext cx="2017058" cy="437029"/>
+          <a:off x="103654" y="12765742"/>
+          <a:ext cx="2023782" cy="442632"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1932,16 +1950,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>197223</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>107577</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>599514</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>126627</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>163605</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>73959</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>565896</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>93009</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1950,8 +1968,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5665694" y="9991165"/>
-          <a:ext cx="2017058" cy="437029"/>
+          <a:off x="2656914" y="12747252"/>
+          <a:ext cx="2023782" cy="442632"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1998,15 +2016,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>246529</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>212914</xdr:rowOff>
+      <xdr:colOff>160804</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>22414</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>531510</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>176494</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247889</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2030,8 +2048,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="246529" y="18568149"/>
-          <a:ext cx="4386334" cy="3258110"/>
+          <a:off x="160804" y="19548664"/>
+          <a:ext cx="3516085" cy="2635061"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2053,15 +2071,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>230841</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>118782</xdr:rowOff>
+      <xdr:colOff>249891</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>197223</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>85164</xdr:rowOff>
+      <xdr:colOff>216273</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2070,8 +2088,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="230841" y="18003370"/>
-          <a:ext cx="2017058" cy="437029"/>
+          <a:off x="249891" y="18968757"/>
+          <a:ext cx="2023782" cy="442632"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2118,16 +2136,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>84102</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>198735</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>123264</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
+      <xdr:rowOff>145354</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2149,8 +2167,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5165912" y="18204014"/>
-          <a:ext cx="3843617" cy="3804339"/>
+          <a:off x="4229099" y="19486860"/>
+          <a:ext cx="2809875" cy="2804119"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2435,9 +2453,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A99"/>
+  <dimension ref="A1:A103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -2472,110 +2490,143 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="3" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A46" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A72" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A76" s="5"/>
+    </row>
+    <row r="79" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="3" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A95" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A99" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>